--- a/archivo_transpuesto.xlsx
+++ b/archivo_transpuesto.xlsx
@@ -1,167 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive - Universidad Libre\Doctorado\Códigos Python\HcNDP\Health-Care-Network-Design-Problem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B2FC48-DE35-444E-91CB-312945696D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
-  <si>
-    <t>333chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>443chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>553chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>663chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>334chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>444chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>554chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>664chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>335chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>445chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>555chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>665chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>336chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>446chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>556chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>666chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>chain_reaction_exhaust_plus_minus</t>
-  </si>
-  <si>
-    <t>0.576923076923077</t>
-  </si>
-  <si>
-    <t>0.5905511811023623</t>
-  </si>
-  <si>
-    <t>0.5888888911851</t>
-  </si>
-  <si>
-    <t>0.622222224486921</t>
-  </si>
-  <si>
-    <t>0.5769230769230776</t>
-  </si>
-  <si>
-    <t>0.5882352969098461</t>
-  </si>
-  <si>
-    <t>0.6235294117647063</t>
-  </si>
-  <si>
-    <t>0.6588235294117648</t>
-  </si>
-  <si>
-    <t>0.6617647058823529</t>
-  </si>
-  <si>
-    <t>0.7246376811594205</t>
-  </si>
-  <si>
-    <t>0.7571428701760456</t>
-  </si>
-  <si>
-    <t>0.8000000000000002</t>
-  </si>
-  <si>
-    <t>0.6716417910447762</t>
-  </si>
-  <si>
-    <t>0.7246376800762856</t>
-  </si>
-  <si>
-    <t>0.7681159399558266</t>
-  </si>
-  <si>
-    <t>0.8000000023045202</t>
-  </si>
-  <si>
-    <t>0.8692185007974482</t>
-  </si>
-  <si>
-    <t>0.5992010652463382</t>
-  </si>
-  <si>
-    <t>0.6091954022988506</t>
-  </si>
-  <si>
-    <t>0.6436781623990743</t>
-  </si>
-  <si>
-    <t>0.6097560975609757</t>
-  </si>
-  <si>
-    <t>0.6463414750827857</t>
-  </si>
-  <si>
-    <t>0.682926837683993</t>
-  </si>
-  <si>
-    <t>0.7462686647504345</t>
-  </si>
-  <si>
-    <t>0.7911188751912369</t>
-  </si>
-  <si>
-    <t>0.8358208955223883</t>
-  </si>
-  <si>
-    <t>0.746268656716418</t>
-  </si>
-  <si>
-    <t>0.7910447761194032</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+  <si>
+    <t>333incremento1_decremento1_exhaust</t>
+  </si>
+  <si>
+    <t>443incremento1_decremento1_exhaust</t>
+  </si>
+  <si>
+    <t>553incremento1_decremento1_exhaust</t>
+  </si>
+  <si>
+    <t>334incremento1_decremento1_exhaust</t>
+  </si>
+  <si>
+    <t>444incremento1_exhaust</t>
+  </si>
+  <si>
+    <t>554incremento1_decremento1_exhaust</t>
+  </si>
+  <si>
+    <t>335incremento1_decremento1_exhaust</t>
+  </si>
+  <si>
+    <t>445incremento1_decremento1_exhaust</t>
+  </si>
+  <si>
+    <t>555incremento1_decremento1_exhaust</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>incremento1_decremento1_exhaust</t>
+  </si>
+  <si>
+    <t>incremento1_exhaust</t>
+  </si>
+  <si>
+    <t>237.7552857755137</t>
+  </si>
+  <si>
+    <t>243.85157515437285</t>
+  </si>
+  <si>
+    <t>174.18160210223067</t>
+  </si>
+  <si>
+    <t>237.75528577551358</t>
+  </si>
+  <si>
+    <t>237.75528577551387</t>
+  </si>
+  <si>
+    <t>171.071798513685</t>
+  </si>
+  <si>
+    <t>182.88868136577955</t>
+  </si>
+  <si>
+    <t>182.88868136577952</t>
+  </si>
+  <si>
+    <t>141.4751092110764</t>
+  </si>
+  <si>
+    <t>115.04587155963303</t>
+  </si>
+  <si>
+    <t>237.75528930692553</t>
+  </si>
+  <si>
+    <t>171.05667312598544</t>
+  </si>
+  <si>
+    <t>237.75528931581454</t>
+  </si>
+  <si>
+    <t>167.1739850360804</t>
+  </si>
+  <si>
+    <t>176.79239461945176</t>
+  </si>
+  <si>
+    <t>134.56439807051248</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +182,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,7 +234,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -302,6 +268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -336,9 +303,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,14 +479,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -535,324 +509,184 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>46.74859350000042</v>
+        <v>17.435776700003771</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>93.08007789996918</v>
+        <v>32.194180099992082</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>35.93050570000196</v>
+        <v>144.36404280000721</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>56.38522659998853</v>
+        <v>17.593220799986739</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>66.16105019999668</v>
+        <v>27.094447799987389</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>64.80095960001927</v>
+        <v>52.378408999997191</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>252.1850413000211</v>
+        <v>93.872133299999405</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>234.4711135999532</v>
+        <v>66.379166500002611</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>354.6819741000072</v>
+        <v>269.47291589999799</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11">
-        <v>75.32061579998117</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>153.0359841000172</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
         <v>30</v>
-      </c>
-      <c r="E13">
-        <v>184.173212499998</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14">
-        <v>184.5022570000147</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>369.3866018000408</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16">
-        <v>654.0977675999748</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17">
-        <v>1369.393699700013</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/archivo_transpuesto.xlsx
+++ b/archivo_transpuesto.xlsx
@@ -1,125 +1,491 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\OneDrive - Universidad Libre\Doctorado\Códigos Python\HcNDP\Health-Care-Network-Design-Problem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B2FC48-DE35-444E-91CB-312945696D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
-  <si>
-    <t>333incremento1_decremento1_exhaust</t>
-  </si>
-  <si>
-    <t>443incremento1_decremento1_exhaust</t>
-  </si>
-  <si>
-    <t>553incremento1_decremento1_exhaust</t>
-  </si>
-  <si>
-    <t>334incremento1_decremento1_exhaust</t>
-  </si>
-  <si>
-    <t>444incremento1_exhaust</t>
-  </si>
-  <si>
-    <t>554incremento1_decremento1_exhaust</t>
-  </si>
-  <si>
-    <t>335incremento1_decremento1_exhaust</t>
-  </si>
-  <si>
-    <t>445incremento1_decremento1_exhaust</t>
-  </si>
-  <si>
-    <t>555incremento1_decremento1_exhaust</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>incremento1_decremento1_exhaust</t>
-  </si>
-  <si>
-    <t>incremento1_exhaust</t>
-  </si>
-  <si>
-    <t>237.7552857755137</t>
-  </si>
-  <si>
-    <t>243.85157515437285</t>
-  </si>
-  <si>
-    <t>174.18160210223067</t>
-  </si>
-  <si>
-    <t>237.75528577551358</t>
-  </si>
-  <si>
-    <t>237.75528577551387</t>
-  </si>
-  <si>
-    <t>171.071798513685</t>
-  </si>
-  <si>
-    <t>182.88868136577955</t>
-  </si>
-  <si>
-    <t>182.88868136577952</t>
-  </si>
-  <si>
-    <t>141.4751092110764</t>
-  </si>
-  <si>
-    <t>115.04587155963303</t>
-  </si>
-  <si>
-    <t>237.75528930692553</t>
-  </si>
-  <si>
-    <t>171.05667312598544</t>
-  </si>
-  <si>
-    <t>237.75528931581454</t>
-  </si>
-  <si>
-    <t>167.1739850360804</t>
-  </si>
-  <si>
-    <t>176.79239461945176</t>
-  </si>
-  <si>
-    <t>134.56439807051248</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="155">
+  <si>
+    <t>773_3</t>
+  </si>
+  <si>
+    <t>883_3</t>
+  </si>
+  <si>
+    <t>993_3</t>
+  </si>
+  <si>
+    <t>10103_3</t>
+  </si>
+  <si>
+    <t>11113_3</t>
+  </si>
+  <si>
+    <t>12123_3</t>
+  </si>
+  <si>
+    <t>13133_3</t>
+  </si>
+  <si>
+    <t>14143_3</t>
+  </si>
+  <si>
+    <t>15153_3</t>
+  </si>
+  <si>
+    <t>16163_3</t>
+  </si>
+  <si>
+    <t>774_3</t>
+  </si>
+  <si>
+    <t>884_3</t>
+  </si>
+  <si>
+    <t>994_3</t>
+  </si>
+  <si>
+    <t>10104_3</t>
+  </si>
+  <si>
+    <t>11114_3</t>
+  </si>
+  <si>
+    <t>12124_3</t>
+  </si>
+  <si>
+    <t>13134_3</t>
+  </si>
+  <si>
+    <t>14144_3</t>
+  </si>
+  <si>
+    <t>15154_3</t>
+  </si>
+  <si>
+    <t>16164_3</t>
+  </si>
+  <si>
+    <t>775_3</t>
+  </si>
+  <si>
+    <t>885_3</t>
+  </si>
+  <si>
+    <t>995_3</t>
+  </si>
+  <si>
+    <t>10105_3</t>
+  </si>
+  <si>
+    <t>11115_3</t>
+  </si>
+  <si>
+    <t>12125_3</t>
+  </si>
+  <si>
+    <t>13135_3</t>
+  </si>
+  <si>
+    <t>14145_3</t>
+  </si>
+  <si>
+    <t>15155_3</t>
+  </si>
+  <si>
+    <t>16165_3</t>
+  </si>
+  <si>
+    <t>776_3</t>
+  </si>
+  <si>
+    <t>886_3</t>
+  </si>
+  <si>
+    <t>996_3</t>
+  </si>
+  <si>
+    <t>10106_3</t>
+  </si>
+  <si>
+    <t>11116_3</t>
+  </si>
+  <si>
+    <t>12126_3</t>
+  </si>
+  <si>
+    <t>13136_3</t>
+  </si>
+  <si>
+    <t>14146_3</t>
+  </si>
+  <si>
+    <t>15156_3</t>
+  </si>
+  <si>
+    <t>16166_3</t>
+  </si>
+  <si>
+    <t>777_3</t>
+  </si>
+  <si>
+    <t>887_3</t>
+  </si>
+  <si>
+    <t>997_3</t>
+  </si>
+  <si>
+    <t>10107_3</t>
+  </si>
+  <si>
+    <t>11117_3</t>
+  </si>
+  <si>
+    <t>12127_3</t>
+  </si>
+  <si>
+    <t>13137_3</t>
+  </si>
+  <si>
+    <t>14147_3</t>
+  </si>
+  <si>
+    <t>15157_3</t>
+  </si>
+  <si>
+    <t>16167_3</t>
+  </si>
+  <si>
+    <t>778_3</t>
+  </si>
+  <si>
+    <t>888_3</t>
+  </si>
+  <si>
+    <t>998_3</t>
+  </si>
+  <si>
+    <t>10108_3</t>
+  </si>
+  <si>
+    <t>11118_3</t>
+  </si>
+  <si>
+    <t>12128_3</t>
+  </si>
+  <si>
+    <t>13138_3</t>
+  </si>
+  <si>
+    <t>14148_3</t>
+  </si>
+  <si>
+    <t>15158_3</t>
+  </si>
+  <si>
+    <t>16168_3</t>
+  </si>
+  <si>
+    <t>779_3</t>
+  </si>
+  <si>
+    <t>889_3</t>
+  </si>
+  <si>
+    <t>999_3</t>
+  </si>
+  <si>
+    <t>10109_3</t>
+  </si>
+  <si>
+    <t>11119_3</t>
+  </si>
+  <si>
+    <t>12129_3</t>
+  </si>
+  <si>
+    <t>13139_3</t>
+  </si>
+  <si>
+    <t>14149_3</t>
+  </si>
+  <si>
+    <t>15159_3</t>
+  </si>
+  <si>
+    <t>16169_3</t>
+  </si>
+  <si>
+    <t>7710_3</t>
+  </si>
+  <si>
+    <t>8810_3</t>
+  </si>
+  <si>
+    <t>9910_3</t>
+  </si>
+  <si>
+    <t>101010_3</t>
+  </si>
+  <si>
+    <t>111110_3</t>
+  </si>
+  <si>
+    <t>121210_3</t>
+  </si>
+  <si>
+    <t>131310_3</t>
+  </si>
+  <si>
+    <t>141410_3</t>
+  </si>
+  <si>
+    <t>151510_3</t>
+  </si>
+  <si>
+    <t>161610_3</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.265625</t>
+  </si>
+  <si>
+    <t>0.0625</t>
+  </si>
+  <si>
+    <t>0.859375</t>
+  </si>
+  <si>
+    <t>0.09375</t>
+  </si>
+  <si>
+    <t>0.28125</t>
+  </si>
+  <si>
+    <t>0.40625</t>
+  </si>
+  <si>
+    <t>0.4375</t>
+  </si>
+  <si>
+    <t>0.453125</t>
+  </si>
+  <si>
+    <t>0.5625</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.046875</t>
+  </si>
+  <si>
+    <t>0.15625</t>
+  </si>
+  <si>
+    <t>0.390625</t>
+  </si>
+  <si>
+    <t>0.421875</t>
+  </si>
+  <si>
+    <t>0.53125</t>
+  </si>
+  <si>
+    <t>0.578125</t>
+  </si>
+  <si>
+    <t>0.9375</t>
+  </si>
+  <si>
+    <t>0.640625</t>
+  </si>
+  <si>
+    <t>0.90625</t>
+  </si>
+  <si>
+    <t>0.296875</t>
+  </si>
+  <si>
+    <t>0.3125</t>
+  </si>
+  <si>
+    <t>0.71875</t>
+  </si>
+  <si>
+    <t>0.515625</t>
+  </si>
+  <si>
+    <t>0.890625</t>
+  </si>
+  <si>
+    <t>0.78125</t>
+  </si>
+  <si>
+    <t>1.015625</t>
+  </si>
+  <si>
+    <t>1.890625</t>
+  </si>
+  <si>
+    <t>0.1875</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.734375</t>
+  </si>
+  <si>
+    <t>0.796875</t>
+  </si>
+  <si>
+    <t>1.71875</t>
+  </si>
+  <si>
+    <t>2.125</t>
+  </si>
+  <si>
+    <t>2.859375</t>
+  </si>
+  <si>
+    <t>3.140625</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>1.078125</t>
+  </si>
+  <si>
+    <t>1.40625</t>
+  </si>
+  <si>
+    <t>1.84375</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.921875</t>
+  </si>
+  <si>
+    <t>3.921875</t>
+  </si>
+  <si>
+    <t>3.796875</t>
+  </si>
+  <si>
+    <t>0.484375</t>
+  </si>
+  <si>
+    <t>0.765625</t>
+  </si>
+  <si>
+    <t>1.265625</t>
+  </si>
+  <si>
+    <t>1.375</t>
+  </si>
+  <si>
+    <t>2.03125</t>
+  </si>
+  <si>
+    <t>2.15625</t>
+  </si>
+  <si>
+    <t>3.65625</t>
+  </si>
+  <si>
+    <t>4.3125</t>
+  </si>
+  <si>
+    <t>6.3125</t>
+  </si>
+  <si>
+    <t>1.09375</t>
+  </si>
+  <si>
+    <t>2.40625</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>3.1875</t>
+  </si>
+  <si>
+    <t>4.046875</t>
+  </si>
+  <si>
+    <t>4.84375</t>
+  </si>
+  <si>
+    <t>5.234375</t>
+  </si>
+  <si>
+    <t>7.15625</t>
+  </si>
+  <si>
+    <t>1.359375</t>
+  </si>
+  <si>
+    <t>1.03125</t>
+  </si>
+  <si>
+    <t>1.484375</t>
+  </si>
+  <si>
+    <t>3.328125</t>
+  </si>
+  <si>
+    <t>3.203125</t>
+  </si>
+  <si>
+    <t>1.390625</t>
+  </si>
+  <si>
+    <t>6.21875</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,21 +548,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +592,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -268,7 +626,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,10 +660,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,20 +835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -508,185 +858,2091 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>17.435776700003771</v>
+        <v>55.74985780008137</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="E3">
-        <v>32.194180099992082</v>
+        <v>12.38504730002023</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <v>144.36404280000721</v>
+        <v>26.43999500002246</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>17.593220799986739</v>
+        <v>16.54749949998222</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="E6">
-        <v>27.094447799987389</v>
+        <v>28.33833399997093</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E7">
-        <v>52.378408999997191</v>
+        <v>27.36034340003971</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E8">
-        <v>93.872133299999405</v>
+        <v>22.77309910010081</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E9">
-        <v>66.379166500002611</v>
+        <v>26.37686970003415</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10">
+        <v>29.80041340005118</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11">
+        <v>32.89399270003196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12">
+        <v>10.35180900001433</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13">
+        <v>12.5153086000355</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14">
+        <v>14.85988409991842</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15">
+        <v>20.19292690011207</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <v>25.72327710001264</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17">
+        <v>29.37523989996407</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18">
+        <v>31.80304839997552</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19">
+        <v>45.4361540999962</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20">
+        <v>50.8299246999668</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>63.90804629994091</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22">
+        <v>13.54750470002182</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>16.87830209999811</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24">
+        <v>21.61697049997747</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
-        <v>269.47291589999799</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25">
+        <v>29.31043559999671</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>37.49195519997738</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27">
+        <v>40.30325410002843</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28">
+        <v>47.46259679994546</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29">
+        <v>60.27900429989677</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30">
+        <v>65.07496370002627</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31">
+        <v>77.74904650007375</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32">
+        <v>18.35197950003203</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33">
+        <v>22.61876769992523</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34">
+        <v>29.20816479995847</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35">
+        <v>33.2436236999929</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36">
+        <v>41.95908790000249</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37">
+        <v>50.49869380006567</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38">
+        <v>62.24390839994885</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39">
+        <v>74.32219490001444</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40">
+        <v>98.96638860006351</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <v>123.338428099989</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42">
+        <v>22.77069460006896</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43">
+        <v>25.82699650002178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44">
+        <v>40.03775040002074</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45">
+        <v>45.36506400001235</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46">
+        <v>60.12831810000353</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47">
+        <v>65.61755770002492</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48">
+        <v>78.41807819996029</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49">
+        <v>112.0092188999988</v>
+      </c>
+      <c r="F49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50">
+        <v>134.0337040000595</v>
+      </c>
+      <c r="F50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51">
+        <v>162.2306925000157</v>
+      </c>
+      <c r="F51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52">
+        <v>24.45397540007252</v>
+      </c>
+      <c r="F52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53">
+        <v>32.3531793000875</v>
+      </c>
+      <c r="F53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54">
+        <v>45.35195999999996</v>
+      </c>
+      <c r="F54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55">
+        <v>58.35088990000077</v>
+      </c>
+      <c r="F55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56">
+        <v>81.90522899990901</v>
+      </c>
+      <c r="F56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57">
+        <v>85.36764559999574</v>
+      </c>
+      <c r="F57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58">
+        <v>119.6528858999955</v>
+      </c>
+      <c r="F58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59">
+        <v>127.8874575000955</v>
+      </c>
+      <c r="F59" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60">
+        <v>157.8734288999112</v>
+      </c>
+      <c r="F60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61">
+        <v>191.3590629000682</v>
+      </c>
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62">
+        <v>28.15552819997538</v>
+      </c>
+      <c r="F62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63">
+        <v>37.15502120007295</v>
+      </c>
+      <c r="F63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64">
+        <v>53.74934099998791</v>
+      </c>
+      <c r="F64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65">
+        <v>86.7351261000149</v>
+      </c>
+      <c r="F65" t="s">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66">
+        <v>106.7557148999767</v>
+      </c>
+      <c r="F66" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67">
+        <v>100.7847886000527</v>
+      </c>
+      <c r="F67" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68">
+        <v>158.5575910999905</v>
+      </c>
+      <c r="F68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69">
+        <v>147.153296399978</v>
+      </c>
+      <c r="F69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70">
+        <v>186.5861320999684</v>
+      </c>
+      <c r="F70" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71">
+        <v>273.8979542999296</v>
+      </c>
+      <c r="F71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72">
+        <v>30.63734889996704</v>
+      </c>
+      <c r="F72" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73">
+        <v>1352.038948199945</v>
+      </c>
+      <c r="F73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74">
+        <v>83.83961380005348</v>
+      </c>
+      <c r="F74" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75">
+        <v>96.8915140000172</v>
+      </c>
+      <c r="F75" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76">
+        <v>138.4605308000464</v>
+      </c>
+      <c r="F76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77">
+        <v>124.0226419999963</v>
+      </c>
+      <c r="F77" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78">
+        <v>160.2693183000665</v>
+      </c>
+      <c r="F78" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79">
+        <v>168.6259274000768</v>
+      </c>
+      <c r="F79" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80">
+        <v>230.480586700025</v>
+      </c>
+      <c r="F80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81">
+        <v>232.7497386999894</v>
+      </c>
+      <c r="F81" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
